--- a/Code/Results/Cases/Case_6_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_10/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.56889111775558</v>
+        <v>19.02209535523182</v>
       </c>
       <c r="C2">
-        <v>15.81709557421002</v>
+        <v>12.49783485343504</v>
       </c>
       <c r="D2">
-        <v>3.570865235915067</v>
+        <v>6.022917594621389</v>
       </c>
       <c r="E2">
-        <v>6.982092659867815</v>
+        <v>8.466446019833352</v>
       </c>
       <c r="F2">
-        <v>34.5937921496168</v>
+        <v>23.46142628797243</v>
       </c>
       <c r="G2">
-        <v>2.089949952976646</v>
+        <v>2.079667130296742</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.678903108769784</v>
+        <v>5.689720613028596</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.9024792584087</v>
+        <v>14.14115416001219</v>
       </c>
       <c r="N2">
-        <v>12.80783846478033</v>
+        <v>11.92512054718892</v>
       </c>
       <c r="O2">
-        <v>25.38150101725855</v>
+        <v>16.66291585361309</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.98601526540442</v>
+        <v>17.73979777111911</v>
       </c>
       <c r="C3">
-        <v>14.69597537138456</v>
+        <v>11.71622355538568</v>
       </c>
       <c r="D3">
-        <v>3.516179911692464</v>
+        <v>5.861514380872071</v>
       </c>
       <c r="E3">
-        <v>6.930039009956021</v>
+        <v>8.352004182077099</v>
       </c>
       <c r="F3">
-        <v>33.43997784009816</v>
+        <v>22.9129233672789</v>
       </c>
       <c r="G3">
-        <v>2.09985306324372</v>
+        <v>2.085382483067323</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.707910637397797</v>
+        <v>5.719649533455517</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.12839979621797</v>
+        <v>13.42387929469557</v>
       </c>
       <c r="N3">
-        <v>13.08101521699926</v>
+        <v>12.10281908531818</v>
       </c>
       <c r="O3">
-        <v>24.6323040613313</v>
+        <v>16.41320108526507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.04530902635083</v>
+        <v>16.90599758085672</v>
       </c>
       <c r="C4">
-        <v>13.97164668479257</v>
+        <v>11.20921879855663</v>
       </c>
       <c r="D4">
-        <v>3.482964494744181</v>
+        <v>5.762441997190914</v>
       </c>
       <c r="E4">
-        <v>6.901227611686683</v>
+        <v>8.285674501516642</v>
       </c>
       <c r="F4">
-        <v>32.7497176206854</v>
+        <v>22.59225303969231</v>
       </c>
       <c r="G4">
-        <v>2.106081392885041</v>
+        <v>2.089001337413225</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.728074249035235</v>
+        <v>5.740470098941248</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.6438602369687</v>
+        <v>12.96844884256039</v>
       </c>
       <c r="N4">
-        <v>13.25157192601078</v>
+        <v>12.21518919766957</v>
       </c>
       <c r="O4">
-        <v>24.18950855472612</v>
+        <v>16.27465656266078</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.6523913189025</v>
+        <v>16.55446179577238</v>
       </c>
       <c r="C5">
-        <v>13.66732613109486</v>
+        <v>10.99580746932924</v>
       </c>
       <c r="D5">
-        <v>3.46952442095369</v>
+        <v>5.72212925139596</v>
       </c>
       <c r="E5">
-        <v>6.890263758525082</v>
+        <v>8.259640382123653</v>
       </c>
       <c r="F5">
-        <v>32.47317797752495</v>
+        <v>22.46570372301649</v>
       </c>
       <c r="G5">
-        <v>2.10865877899107</v>
+        <v>2.090504294251049</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.736866136857413</v>
+        <v>5.74955389805951</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.44430633011862</v>
+        <v>12.77929485196638</v>
       </c>
       <c r="N5">
-        <v>13.3218287078939</v>
+        <v>12.26180716982927</v>
       </c>
       <c r="O5">
-        <v>24.01343891131496</v>
+        <v>16.22185894787183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.58657424351215</v>
+        <v>16.49537748010286</v>
       </c>
       <c r="C6">
-        <v>13.61623824463183</v>
+        <v>10.95996033164534</v>
       </c>
       <c r="D6">
-        <v>3.46729861944529</v>
+        <v>5.715440557693381</v>
       </c>
       <c r="E6">
-        <v>6.888489707528212</v>
+        <v>8.255377694632751</v>
       </c>
       <c r="F6">
-        <v>32.4275507842584</v>
+        <v>22.44494145404283</v>
       </c>
       <c r="G6">
-        <v>2.109089184537308</v>
+        <v>2.090755584378783</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.738360291862028</v>
+        <v>5.751098014353603</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.41105117732091</v>
+        <v>12.74767785451846</v>
       </c>
       <c r="N6">
-        <v>13.3335415289232</v>
+        <v>12.26959813251991</v>
       </c>
       <c r="O6">
-        <v>23.98446807360528</v>
+        <v>16.21331112887496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.04004855424987</v>
+        <v>16.90130433770483</v>
       </c>
       <c r="C7">
-        <v>13.96757970005379</v>
+        <v>11.20636818147001</v>
       </c>
       <c r="D7">
-        <v>3.482782844110408</v>
+        <v>5.761898011116186</v>
       </c>
       <c r="E7">
-        <v>6.901076623105571</v>
+        <v>8.285319358829417</v>
       </c>
       <c r="F7">
-        <v>32.74596865133255</v>
+        <v>22.59052955438893</v>
       </c>
       <c r="G7">
-        <v>2.106115990617557</v>
+        <v>2.08902149157252</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.728190512209905</v>
+        <v>5.740590199626839</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.64117715550173</v>
+        <v>12.96591195750658</v>
       </c>
       <c r="N7">
-        <v>13.25251632685188</v>
+        <v>12.21581455037709</v>
       </c>
       <c r="O7">
-        <v>24.18711625333369</v>
+        <v>16.27392977845559</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.03071119496186</v>
+        <v>18.58955916358599</v>
       </c>
       <c r="C8">
-        <v>15.43792722901279</v>
+        <v>12.23396055669726</v>
       </c>
       <c r="D8">
-        <v>3.551937173438266</v>
+        <v>5.967290332474505</v>
       </c>
       <c r="E8">
-        <v>6.963481807164341</v>
+        <v>8.426173059283379</v>
       </c>
       <c r="F8">
-        <v>34.19228160283927</v>
+        <v>23.26900678787282</v>
       </c>
       <c r="G8">
-        <v>2.093335206068776</v>
+        <v>2.081615457212854</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.688406204473087</v>
+        <v>5.699523384431812</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.63761910304129</v>
+        <v>13.89707247005096</v>
       </c>
       <c r="N8">
-        <v>12.9014700945109</v>
+        <v>11.98571725615991</v>
       </c>
       <c r="O8">
-        <v>25.11963100949274</v>
+        <v>16.57371609204382</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.72934246441599</v>
+        <v>21.53486433177815</v>
       </c>
       <c r="C9">
-        <v>18.04143547697892</v>
+        <v>14.03424758687663</v>
       </c>
       <c r="D9">
-        <v>3.69027006534832</v>
+        <v>6.36813437485598</v>
       </c>
       <c r="E9">
-        <v>7.111534718739041</v>
+        <v>8.733308067140033</v>
       </c>
       <c r="F9">
-        <v>37.1664206819367</v>
+        <v>24.72359984336099</v>
       </c>
       <c r="G9">
-        <v>2.069339550580546</v>
+        <v>2.06792922306897</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.629870960146369</v>
+        <v>5.639110475184375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.51054877803796</v>
+        <v>15.60245138865069</v>
       </c>
       <c r="N9">
-        <v>12.23342504175371</v>
+        <v>11.56014290071827</v>
       </c>
       <c r="O9">
-        <v>27.08334289543044</v>
+        <v>17.28082256275528</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.21914204604423</v>
+        <v>23.48077702682918</v>
       </c>
       <c r="C10">
-        <v>19.79205154076629</v>
+        <v>15.22683934772632</v>
       </c>
       <c r="D10">
-        <v>3.793466705376974</v>
+        <v>6.658801032824235</v>
       </c>
       <c r="E10">
-        <v>7.236952123140856</v>
+        <v>8.977299127478132</v>
       </c>
       <c r="F10">
-        <v>39.42997349791614</v>
+        <v>25.86269118964739</v>
       </c>
       <c r="G10">
-        <v>2.052198807324871</v>
+        <v>2.058335812796804</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.599979420911415</v>
+        <v>5.608051149617569</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.98500986001323</v>
+        <v>16.99248339451571</v>
       </c>
       <c r="N10">
-        <v>11.75199709567257</v>
+        <v>11.26282371599585</v>
       </c>
       <c r="O10">
-        <v>28.60777151876007</v>
+        <v>17.87498624625463</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.30501502643191</v>
+        <v>24.31974998199948</v>
       </c>
       <c r="C11">
-        <v>20.55534186766911</v>
+        <v>15.74147448224613</v>
       </c>
       <c r="D11">
-        <v>3.840767600113138</v>
+        <v>6.78971595862587</v>
       </c>
       <c r="E11">
-        <v>7.297856018588613</v>
+        <v>9.092156448289652</v>
       </c>
       <c r="F11">
-        <v>40.47662520674083</v>
+        <v>26.395093777335</v>
       </c>
       <c r="G11">
-        <v>2.044466356255949</v>
+        <v>2.05406034928675</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.589537333395313</v>
+        <v>5.597064120862845</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.71286544498462</v>
+        <v>17.5926378148273</v>
       </c>
       <c r="N11">
-        <v>11.53431850375318</v>
+        <v>11.13085995102309</v>
       </c>
       <c r="O11">
-        <v>29.31945547697803</v>
+        <v>18.16175598843145</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.70973363769961</v>
+        <v>24.63088845192287</v>
       </c>
       <c r="C12">
-        <v>20.8398198998482</v>
+        <v>15.93237873712224</v>
       </c>
       <c r="D12">
-        <v>3.858734355279076</v>
+        <v>6.839066719914806</v>
       </c>
       <c r="E12">
-        <v>7.321493840266556</v>
+        <v>9.136194932250003</v>
       </c>
       <c r="F12">
-        <v>40.8754755953946</v>
+        <v>26.59866379968583</v>
       </c>
       <c r="G12">
-        <v>2.041543766802664</v>
+        <v>2.052453073783604</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.586065944576624</v>
+        <v>5.59337754775044</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.98405502214512</v>
+        <v>17.81533603451363</v>
       </c>
       <c r="N12">
-        <v>11.45201954393005</v>
+        <v>11.08136090227385</v>
       </c>
       <c r="O12">
-        <v>29.59165795478104</v>
+        <v>18.27273129295477</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.62285412762575</v>
+        <v>24.56416967612819</v>
       </c>
       <c r="C13">
-        <v>20.77875213094081</v>
+        <v>15.89144039234375</v>
       </c>
       <c r="D13">
-        <v>3.854862362369718</v>
+        <v>6.82844862385897</v>
       </c>
       <c r="E13">
-        <v>7.31637708354595</v>
+        <v>9.126686409540911</v>
       </c>
       <c r="F13">
-        <v>40.78946263598568</v>
+        <v>26.55473536588151</v>
       </c>
       <c r="G13">
-        <v>2.042173018877749</v>
+        <v>2.052798723350801</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.586791602707133</v>
+        <v>5.594150070468971</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.92584365724452</v>
+        <v>17.76757612328014</v>
       </c>
       <c r="N13">
-        <v>11.46973923162495</v>
+        <v>11.09200036353813</v>
       </c>
       <c r="O13">
-        <v>29.53291217324123</v>
+        <v>18.24872467304955</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.33843978740468</v>
+        <v>24.34547854747687</v>
       </c>
       <c r="C14">
-        <v>20.57883632606449</v>
+        <v>15.7572597890831</v>
       </c>
       <c r="D14">
-        <v>3.842244604249795</v>
+        <v>6.793780749286579</v>
       </c>
       <c r="E14">
-        <v>7.299789066089583</v>
+        <v>9.095768669534642</v>
       </c>
       <c r="F14">
-        <v>40.50938797042997</v>
+        <v>26.41180275135683</v>
       </c>
       <c r="G14">
-        <v>2.04422582590073</v>
+        <v>2.053927888232653</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.589241886990063</v>
+        <v>5.596751193596359</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.73526414854933</v>
+        <v>17.61105050910134</v>
       </c>
       <c r="N14">
-        <v>11.5275454374914</v>
+        <v>11.12677815358091</v>
       </c>
       <c r="O14">
-        <v>29.34179490084843</v>
+        <v>18.17083819692052</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.16339195415943</v>
+        <v>24.21067190518094</v>
       </c>
       <c r="C15">
-        <v>20.45579390358002</v>
+        <v>15.67455343587751</v>
       </c>
       <c r="D15">
-        <v>3.834523171981086</v>
+        <v>6.772515544603194</v>
       </c>
       <c r="E15">
-        <v>7.289703955403788</v>
+        <v>9.076901252360475</v>
       </c>
       <c r="F15">
-        <v>40.33816388557101</v>
+        <v>26.32450543437541</v>
       </c>
       <c r="G15">
-        <v>2.045483827486956</v>
+        <v>2.054621033760585</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.590806545016646</v>
+        <v>5.598406861805175</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.61795689285129</v>
+        <v>17.51458110389043</v>
       </c>
       <c r="N15">
-        <v>11.5629686926564</v>
+        <v>11.14814215055705</v>
       </c>
       <c r="O15">
-        <v>29.22508544226062</v>
+        <v>18.12344098332463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.14725720111663</v>
+        <v>23.425025113053</v>
       </c>
       <c r="C16">
-        <v>19.7415191776369</v>
+        <v>15.19264833808531</v>
       </c>
       <c r="D16">
-        <v>3.790382907180952</v>
+        <v>6.650215932091061</v>
       </c>
       <c r="E16">
-        <v>7.233051148183535</v>
+        <v>8.969869722716659</v>
       </c>
       <c r="F16">
-        <v>39.3619175595046</v>
+        <v>25.82817614953573</v>
       </c>
       <c r="G16">
-        <v>2.052705131992171</v>
+        <v>2.058616924352852</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.6007277494493</v>
+        <v>5.608834268426095</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.93681231106547</v>
+        <v>16.95261942587621</v>
       </c>
       <c r="N16">
-        <v>11.76624454937781</v>
+        <v>11.27151397935149</v>
       </c>
       <c r="O16">
-        <v>28.56163387962613</v>
+        <v>17.85657788074277</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.51208248905521</v>
+        <v>22.93127500608911</v>
       </c>
       <c r="C17">
-        <v>19.29499431627955</v>
+        <v>14.88989549659506</v>
       </c>
       <c r="D17">
-        <v>3.76339736329435</v>
+        <v>6.574826779979468</v>
       </c>
       <c r="E17">
-        <v>7.199297064407063</v>
+        <v>8.905190985724989</v>
       </c>
       <c r="F17">
-        <v>38.76738850847492</v>
+        <v>25.52727355380154</v>
       </c>
       <c r="G17">
-        <v>2.057149226485091</v>
+        <v>2.061090287324204</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.607642061141886</v>
+        <v>5.61605125817116</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.51086014469715</v>
+        <v>16.59967404249857</v>
       </c>
       <c r="N17">
-        <v>11.89124565129996</v>
+        <v>11.34804019640275</v>
       </c>
       <c r="O17">
-        <v>28.15933750949639</v>
+        <v>17.6970965516936</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.14233015317118</v>
+        <v>22.64292605800857</v>
       </c>
       <c r="C18">
-        <v>19.03503928197744</v>
+        <v>14.71313350193586</v>
       </c>
       <c r="D18">
-        <v>3.747909155752084</v>
+        <v>6.531343396666185</v>
       </c>
       <c r="E18">
-        <v>7.180243688093563</v>
+        <v>8.868353889255093</v>
       </c>
       <c r="F18">
-        <v>38.42701805833401</v>
+        <v>25.35554567226597</v>
       </c>
       <c r="G18">
-        <v>2.059711719727265</v>
+        <v>2.062521305825066</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.611914116753751</v>
+        <v>5.620496620055673</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.26283387106595</v>
+        <v>16.39363662578709</v>
       </c>
       <c r="N18">
-        <v>11.96327143991611</v>
+        <v>11.39236546275963</v>
       </c>
       <c r="O18">
-        <v>27.92965389497707</v>
+        <v>17.60691798618289</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.0163728354986</v>
+        <v>22.54454518926638</v>
       </c>
       <c r="C19">
-        <v>18.94648059416853</v>
+        <v>14.65283291574623</v>
       </c>
       <c r="D19">
-        <v>3.742670739133642</v>
+        <v>6.516600946579211</v>
       </c>
       <c r="E19">
-        <v>7.173853953671205</v>
+        <v>8.855944419720959</v>
       </c>
       <c r="F19">
-        <v>38.31204617208125</v>
+        <v>25.29763504858281</v>
       </c>
       <c r="G19">
-        <v>2.060580538761046</v>
+        <v>2.063007296939059</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.613410413659325</v>
+        <v>5.622051641849635</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.18755215644739</v>
+        <v>16.32335328395503</v>
       </c>
       <c r="N19">
-        <v>11.9876819692762</v>
+        <v>11.40742640839434</v>
       </c>
       <c r="O19">
-        <v>27.852178308529</v>
+        <v>17.57665103976766</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.58015335062407</v>
+        <v>22.98428586427087</v>
       </c>
       <c r="C20">
-        <v>19.34284982441034</v>
+        <v>14.9223956759759</v>
       </c>
       <c r="D20">
-        <v>3.766266569553697</v>
+        <v>6.582864932927205</v>
       </c>
       <c r="E20">
-        <v>7.202852728750661</v>
+        <v>8.912038516861443</v>
       </c>
       <c r="F20">
-        <v>38.8305126451482</v>
+        <v>25.55916677012247</v>
       </c>
       <c r="G20">
-        <v>2.056675512261121</v>
+        <v>2.060826130655472</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.606875275724938</v>
+        <v>5.615252377723333</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.55651582694155</v>
+        <v>16.63755911766429</v>
       </c>
       <c r="N20">
-        <v>11.87792619830764</v>
+        <v>11.3398618333145</v>
       </c>
       <c r="O20">
-        <v>28.201985563583</v>
+        <v>17.71391300956179</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.42215288108192</v>
+        <v>24.4098908334789</v>
       </c>
       <c r="C21">
-        <v>20.63767865421941</v>
+        <v>15.79677953268971</v>
       </c>
       <c r="D21">
-        <v>3.845949212080409</v>
+        <v>6.803969880495088</v>
       </c>
       <c r="E21">
-        <v>7.304645587488633</v>
+        <v>9.104835266889305</v>
       </c>
       <c r="F21">
-        <v>40.59158373830535</v>
+        <v>26.45373292577401</v>
       </c>
       <c r="G21">
-        <v>2.043622749563707</v>
+        <v>2.053595914532072</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.58850882957092</v>
+        <v>5.595974134144581</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.79136079080724</v>
+        <v>17.65714933359413</v>
       </c>
       <c r="N21">
-        <v>11.51056327726097</v>
+        <v>11.11655023455295</v>
       </c>
       <c r="O21">
-        <v>29.39785639128348</v>
+        <v>18.19365061568005</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.58838392639758</v>
+        <v>25.30339785331028</v>
       </c>
       <c r="C22">
-        <v>21.45743021027186</v>
+        <v>16.3450782140387</v>
       </c>
       <c r="D22">
-        <v>3.898350329395992</v>
+        <v>6.947156539552894</v>
       </c>
       <c r="E22">
-        <v>7.374535429538724</v>
+        <v>9.234008385281408</v>
       </c>
       <c r="F22">
-        <v>41.75724281232419</v>
+        <v>27.04978239236013</v>
       </c>
       <c r="G22">
-        <v>2.035122085057321</v>
+        <v>2.048938522793888</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.579335176776978</v>
+        <v>5.586148596639169</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.57265712760647</v>
+        <v>18.2969196173451</v>
       </c>
       <c r="N22">
-        <v>11.27120606288826</v>
+        <v>10.9733601579248</v>
       </c>
       <c r="O22">
-        <v>30.19526045142878</v>
+        <v>18.52107480164317</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.96929793300476</v>
+        <v>24.82998314281453</v>
       </c>
       <c r="C23">
-        <v>21.02226823117721</v>
+        <v>16.05454813864049</v>
       </c>
       <c r="D23">
-        <v>3.87035129134658</v>
+        <v>6.870866281269699</v>
       </c>
       <c r="E23">
-        <v>7.336918598648104</v>
+        <v>9.16477974351573</v>
       </c>
       <c r="F23">
-        <v>41.13372029144593</v>
+        <v>26.73064121257272</v>
       </c>
       <c r="G23">
-        <v>2.039657683073735</v>
+        <v>2.051418388477976</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.583961991302909</v>
+        <v>5.591131199606982</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.15795687430676</v>
+        <v>17.95787447118891</v>
       </c>
       <c r="N23">
-        <v>11.39890837246145</v>
+        <v>11.04953067312284</v>
       </c>
       <c r="O23">
-        <v>29.76818078737078</v>
+        <v>18.34504803568264</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.54939280390755</v>
+        <v>22.96033363286451</v>
       </c>
       <c r="C24">
-        <v>19.32122446138511</v>
+        <v>14.90771077383467</v>
       </c>
       <c r="D24">
-        <v>3.764969320220318</v>
+        <v>6.579231320910377</v>
       </c>
       <c r="E24">
-        <v>7.201244117134524</v>
+        <v>8.908941664563439</v>
       </c>
       <c r="F24">
-        <v>38.80196976604271</v>
+        <v>25.54474390013348</v>
       </c>
       <c r="G24">
-        <v>2.056889654743138</v>
+        <v>2.060945527624598</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.607221016711177</v>
+        <v>5.615612630581134</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.53588468876769</v>
+        <v>16.62044101152658</v>
       </c>
       <c r="N24">
-        <v>11.88394741709568</v>
+        <v>11.34355824546329</v>
       </c>
       <c r="O24">
-        <v>28.18269939434378</v>
+        <v>17.70630558848096</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.76953086665635</v>
+        <v>20.77671520125092</v>
       </c>
       <c r="C25">
-        <v>17.36625648682915</v>
+        <v>13.57015863019728</v>
       </c>
       <c r="D25">
-        <v>3.652571213917497</v>
+        <v>6.260190409920307</v>
       </c>
       <c r="E25">
-        <v>7.068634080120202</v>
+        <v>8.646958171621641</v>
       </c>
       <c r="F25">
-        <v>36.34781539907036</v>
+        <v>24.31734384976616</v>
       </c>
       <c r="G25">
-        <v>2.075732475721442</v>
+        <v>2.071546926340055</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.643499903820646</v>
+        <v>5.65319403081666</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.013450875172</v>
+        <v>15.15112174472812</v>
       </c>
       <c r="N25">
-        <v>12.4122725943035</v>
+        <v>11.67255943286912</v>
       </c>
       <c r="O25">
-        <v>26.53779510576341</v>
+        <v>17.07652852331608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.02209535523182</v>
+        <v>17.46843932254433</v>
       </c>
       <c r="C2">
-        <v>12.49783485343504</v>
+        <v>13.16353645730523</v>
       </c>
       <c r="D2">
-        <v>6.022917594621389</v>
+        <v>6.878993168071378</v>
       </c>
       <c r="E2">
-        <v>8.466446019833352</v>
+        <v>8.947127725895415</v>
       </c>
       <c r="F2">
-        <v>23.46142628797243</v>
+        <v>19.97073751794206</v>
       </c>
       <c r="G2">
-        <v>2.079667130296742</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>21.44793355936253</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.048525395733352</v>
       </c>
       <c r="J2">
-        <v>5.689720613028596</v>
+        <v>8.421254131584428</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.15755712399433</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.698896887947516</v>
       </c>
       <c r="M2">
-        <v>14.14115416001219</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.92512054718892</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.66291585361309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.65944013409561</v>
+      </c>
+      <c r="P2">
+        <v>12.22961101938443</v>
+      </c>
+      <c r="Q2">
+        <v>13.73566980292709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73979777111911</v>
+        <v>16.33845993680359</v>
       </c>
       <c r="C3">
-        <v>11.71622355538568</v>
+        <v>12.40559136779795</v>
       </c>
       <c r="D3">
-        <v>5.861514380872071</v>
+        <v>6.684654131607337</v>
       </c>
       <c r="E3">
-        <v>8.352004182077099</v>
+        <v>8.819124540706213</v>
       </c>
       <c r="F3">
-        <v>22.9129233672789</v>
+        <v>19.58331832046021</v>
       </c>
       <c r="G3">
-        <v>2.085382483067323</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.84604145571757</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.905094950579227</v>
       </c>
       <c r="J3">
-        <v>5.719649533455517</v>
+        <v>8.422882764074958</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.29170062523777</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.728826985063214</v>
       </c>
       <c r="M3">
-        <v>13.42387929469557</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.10281908531818</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.41320108526507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.95008502717693</v>
+      </c>
+      <c r="P3">
+        <v>12.29142343464215</v>
+      </c>
+      <c r="Q3">
+        <v>13.6107027263058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.90599758085672</v>
+        <v>15.60053753310433</v>
       </c>
       <c r="C4">
-        <v>11.20921879855663</v>
+        <v>11.91886512408045</v>
       </c>
       <c r="D4">
-        <v>5.762441997190914</v>
+        <v>6.566136035541646</v>
       </c>
       <c r="E4">
-        <v>8.285674501516642</v>
+        <v>8.745095199846165</v>
       </c>
       <c r="F4">
-        <v>22.59225303969231</v>
+        <v>19.35432127880835</v>
       </c>
       <c r="G4">
-        <v>2.089001337413225</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>20.48359588383213</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.814371930212934</v>
       </c>
       <c r="J4">
-        <v>5.740470098941248</v>
+        <v>8.427886327123407</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.37958714805645</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.749570533610195</v>
       </c>
       <c r="M4">
-        <v>12.96844884256039</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.21518919766957</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.27465656266078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.49709148946916</v>
+      </c>
+      <c r="P4">
+        <v>12.33260262365647</v>
+      </c>
+      <c r="Q4">
+        <v>13.54170000204957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.55446179577238</v>
+        <v>15.2839110634906</v>
       </c>
       <c r="C5">
-        <v>10.99580746932924</v>
+        <v>11.72445950354486</v>
       </c>
       <c r="D5">
-        <v>5.72212925139596</v>
+        <v>6.51929317272658</v>
       </c>
       <c r="E5">
-        <v>8.259640382123653</v>
+        <v>8.716446123945325</v>
       </c>
       <c r="F5">
-        <v>22.46570372301649</v>
+        <v>19.25793379214452</v>
       </c>
       <c r="G5">
-        <v>2.090504294251049</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>20.32765119617267</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.777241843052168</v>
       </c>
       <c r="J5">
-        <v>5.74955389805951</v>
+        <v>8.429313044929945</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.41300867959029</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.758477266326023</v>
       </c>
       <c r="M5">
-        <v>12.77929485196638</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.26180716982927</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.22185894787183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.30887338038998</v>
+      </c>
+      <c r="P5">
+        <v>12.3510616878231</v>
+      </c>
+      <c r="Q5">
+        <v>13.51137663654869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.49537748010286</v>
+        <v>15.22479161097247</v>
       </c>
       <c r="C6">
-        <v>10.95996033164534</v>
+        <v>11.70317291924838</v>
       </c>
       <c r="D6">
-        <v>5.715440557693381</v>
+        <v>6.512978900722937</v>
       </c>
       <c r="E6">
-        <v>8.255377694632751</v>
+        <v>8.712196686780189</v>
       </c>
       <c r="F6">
-        <v>22.44494145404283</v>
+        <v>19.23548933596607</v>
       </c>
       <c r="G6">
-        <v>2.090755584378783</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>20.28937291857538</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.771866838803988</v>
       </c>
       <c r="J6">
-        <v>5.751098014353603</v>
+        <v>8.427660142046095</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.41407234005928</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.759834413265896</v>
       </c>
       <c r="M6">
-        <v>12.74767785451846</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.26959813251991</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.21331112887496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.27806974645546</v>
+      </c>
+      <c r="P6">
+        <v>12.3552610908673</v>
+      </c>
+      <c r="Q6">
+        <v>13.50141552721015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.90130433770483</v>
+        <v>15.58065262307045</v>
       </c>
       <c r="C7">
-        <v>11.20636818147001</v>
+        <v>11.94653453258599</v>
       </c>
       <c r="D7">
-        <v>5.761898011116186</v>
+        <v>6.569411322939509</v>
       </c>
       <c r="E7">
-        <v>8.285319358829417</v>
+        <v>8.745893318457616</v>
       </c>
       <c r="F7">
-        <v>22.59052955438893</v>
+        <v>19.3351488185613</v>
       </c>
       <c r="G7">
-        <v>2.08902149157252</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>20.44762248920716</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.815801080557712</v>
       </c>
       <c r="J7">
-        <v>5.740590199626839</v>
+        <v>8.422585281210964</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.36753753192237</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.749261958652998</v>
       </c>
       <c r="M7">
-        <v>12.96591195750658</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.21581455037709</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.27392977845559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.49642506955439</v>
+      </c>
+      <c r="P7">
+        <v>12.33588095599075</v>
+      </c>
+      <c r="Q7">
+        <v>13.52755660346246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.58955916358599</v>
+        <v>17.06881657363405</v>
       </c>
       <c r="C8">
-        <v>12.23396055669726</v>
+        <v>12.94405145960223</v>
       </c>
       <c r="D8">
-        <v>5.967290332474505</v>
+        <v>6.816848329484728</v>
       </c>
       <c r="E8">
-        <v>8.426173059283379</v>
+        <v>8.903602352739664</v>
       </c>
       <c r="F8">
-        <v>23.26900678787282</v>
+        <v>19.81227965260375</v>
       </c>
       <c r="G8">
-        <v>2.081615457212854</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>21.19572276056725</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.001678721969763</v>
       </c>
       <c r="J8">
-        <v>5.699523384431812</v>
+        <v>8.413959772407889</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.18600440506916</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.708157662689913</v>
       </c>
       <c r="M8">
-        <v>13.89707247005096</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.98571725615991</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.57371609204382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.42083937872825</v>
+      </c>
+      <c r="P8">
+        <v>12.25453848339278</v>
+      </c>
+      <c r="Q8">
+        <v>13.67302021412161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.53486433177815</v>
+        <v>19.66337444171458</v>
       </c>
       <c r="C9">
-        <v>14.03424758687663</v>
+        <v>14.67991824621883</v>
       </c>
       <c r="D9">
-        <v>6.36813437485598</v>
+        <v>7.298866255818977</v>
       </c>
       <c r="E9">
-        <v>8.733308067140033</v>
+        <v>9.246272299600134</v>
       </c>
       <c r="F9">
-        <v>24.72359984336099</v>
+        <v>20.84575952150716</v>
       </c>
       <c r="G9">
-        <v>2.06792922306897</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>22.76893597420551</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.343338778874673</v>
       </c>
       <c r="J9">
-        <v>5.639110475184375</v>
+        <v>8.439472680903119</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.89855779794565</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.647715680553689</v>
       </c>
       <c r="M9">
-        <v>15.60245138865069</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.56014290071827</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.28082256275528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.16869423212876</v>
+      </c>
+      <c r="P9">
+        <v>12.11551338742616</v>
+      </c>
+      <c r="Q9">
+        <v>14.04477633650717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.48077702682918</v>
+        <v>21.35294152201837</v>
       </c>
       <c r="C10">
-        <v>15.22683934772632</v>
+        <v>15.86169742034597</v>
       </c>
       <c r="D10">
-        <v>6.658801032824235</v>
+        <v>7.653174538341437</v>
       </c>
       <c r="E10">
-        <v>8.977299127478132</v>
+        <v>9.519083868213727</v>
       </c>
       <c r="F10">
-        <v>25.86269118964739</v>
+        <v>21.63259136567675</v>
       </c>
       <c r="G10">
-        <v>2.058335812796804</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>23.92868290615881</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.583683176385734</v>
       </c>
       <c r="J10">
-        <v>5.608051149617569</v>
+        <v>8.477322238725629</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.71237839156994</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.61584270416137</v>
       </c>
       <c r="M10">
-        <v>16.99248339451571</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.26282371599585</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.87498624625463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.46790406151213</v>
+      </c>
+      <c r="P10">
+        <v>12.03254049825294</v>
+      </c>
+      <c r="Q10">
+        <v>14.35044369222999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.31974998199948</v>
+        <v>22.05800102405744</v>
       </c>
       <c r="C11">
-        <v>15.74147448224613</v>
+        <v>16.41298860672543</v>
       </c>
       <c r="D11">
-        <v>6.78971595862587</v>
+        <v>7.818663551263613</v>
       </c>
       <c r="E11">
-        <v>9.092156448289652</v>
+        <v>9.649129041490985</v>
       </c>
       <c r="F11">
-        <v>26.395093777335</v>
+        <v>21.97171051945877</v>
       </c>
       <c r="G11">
-        <v>2.05406034928675</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>24.41236145660372</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.694088315374521</v>
       </c>
       <c r="J11">
-        <v>5.597064120862845</v>
+        <v>8.491129835091535</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.61423766670071</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.603639230561567</v>
       </c>
       <c r="M11">
-        <v>17.5926378148273</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.13085995102309</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.16175598843145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.02903438950247</v>
+      </c>
+      <c r="P11">
+        <v>12.00519607944588</v>
+      </c>
+      <c r="Q11">
+        <v>14.47739642647837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.63088845192287</v>
+        <v>22.32877474446057</v>
       </c>
       <c r="C12">
-        <v>15.93237873712224</v>
+        <v>16.59805511450357</v>
       </c>
       <c r="D12">
-        <v>6.839066719914806</v>
+        <v>7.878220322066857</v>
       </c>
       <c r="E12">
-        <v>9.136194932250003</v>
+        <v>9.697997034298879</v>
       </c>
       <c r="F12">
-        <v>26.59866379968583</v>
+        <v>22.11486502953849</v>
       </c>
       <c r="G12">
-        <v>2.052453073783604</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>24.62088288864983</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.733807368113578</v>
       </c>
       <c r="J12">
-        <v>5.59337754775044</v>
+        <v>8.501635225572761</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.58936881629843</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.599825411283398</v>
       </c>
       <c r="M12">
-        <v>17.81533603451363</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.08136090227385</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.27273129295477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.2361072836616</v>
+      </c>
+      <c r="P12">
+        <v>11.99217060824034</v>
+      </c>
+      <c r="Q12">
+        <v>14.53789041411082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.56416967612819</v>
+        <v>22.27274070841729</v>
       </c>
       <c r="C13">
-        <v>15.89144039234375</v>
+        <v>16.55436214755181</v>
       </c>
       <c r="D13">
-        <v>6.82844862385897</v>
+        <v>7.864829065594099</v>
       </c>
       <c r="E13">
-        <v>9.126686409540911</v>
+        <v>9.687257979894859</v>
       </c>
       <c r="F13">
-        <v>26.55473536588151</v>
+        <v>22.08673885366691</v>
       </c>
       <c r="G13">
-        <v>2.052798723350801</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>24.58092871189541</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.724857231544146</v>
       </c>
       <c r="J13">
-        <v>5.594150070468971</v>
+        <v>8.500244817367912</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.59691764794598</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.600699279986436</v>
       </c>
       <c r="M13">
-        <v>17.76757612328014</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.09200036353813</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.24872467304955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.19153312602178</v>
+      </c>
+      <c r="P13">
+        <v>11.99427468367571</v>
+      </c>
+      <c r="Q13">
+        <v>14.52702933671842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.34547854747687</v>
+        <v>22.08126124271702</v>
       </c>
       <c r="C14">
-        <v>15.7572597890831</v>
+        <v>16.42657584952922</v>
       </c>
       <c r="D14">
-        <v>6.793780749286579</v>
+        <v>7.823322289848001</v>
       </c>
       <c r="E14">
-        <v>9.095768669534642</v>
+        <v>9.653057352722151</v>
       </c>
       <c r="F14">
-        <v>26.41180275135683</v>
+        <v>21.98464113749283</v>
       </c>
       <c r="G14">
-        <v>2.053927888232653</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>24.43163349419096</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.697181828191697</v>
       </c>
       <c r="J14">
-        <v>5.596751193596359</v>
+        <v>8.492364224236356</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.61312096760472</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.603347295809154</v>
       </c>
       <c r="M14">
-        <v>17.61105050910134</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.12677815358091</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.17083819692052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.04608454486812</v>
+      </c>
+      <c r="P14">
+        <v>12.00382715368202</v>
+      </c>
+      <c r="Q14">
+        <v>14.48329547268022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.21067190518094</v>
+        <v>21.95914498024027</v>
       </c>
       <c r="C15">
-        <v>15.67455343587751</v>
+        <v>16.3558311296469</v>
       </c>
       <c r="D15">
-        <v>6.772515544603194</v>
+        <v>7.799014070321755</v>
       </c>
       <c r="E15">
-        <v>9.076901252360475</v>
+        <v>9.632558114315867</v>
       </c>
       <c r="F15">
-        <v>26.32450543437541</v>
+        <v>21.91676626370122</v>
       </c>
       <c r="G15">
-        <v>2.054621033760585</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>24.33032316008693</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.681083478186051</v>
       </c>
       <c r="J15">
-        <v>5.598406861805175</v>
+        <v>8.4858478368857</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.61878791779653</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.604884679921305</v>
       </c>
       <c r="M15">
-        <v>17.51458110389043</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.14814215055705</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.12344098332463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.95676272431797</v>
+      </c>
+      <c r="P15">
+        <v>12.01107413797923</v>
+      </c>
+      <c r="Q15">
+        <v>14.45226644851655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.425025113053</v>
+        <v>21.27155189733678</v>
       </c>
       <c r="C16">
-        <v>15.19264833808531</v>
+        <v>15.89371004285359</v>
       </c>
       <c r="D16">
-        <v>6.650215932091061</v>
+        <v>7.652110668614553</v>
       </c>
       <c r="E16">
-        <v>8.969869722716659</v>
+        <v>9.5138599441499</v>
       </c>
       <c r="F16">
-        <v>25.82817614953573</v>
+        <v>21.56407575772883</v>
       </c>
       <c r="G16">
-        <v>2.058616924352852</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>23.81250171447013</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.582899023008804</v>
       </c>
       <c r="J16">
-        <v>5.608834268426095</v>
+        <v>8.461407183304663</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.68182727540326</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.615492997815771</v>
       </c>
       <c r="M16">
-        <v>16.95261942587621</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.27151397935149</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.85657788074277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>16.43367164838684</v>
+      </c>
+      <c r="P16">
+        <v>12.04532680947659</v>
+      </c>
+      <c r="Q16">
+        <v>14.30491471052212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.93127500608911</v>
+        <v>20.83817267909624</v>
       </c>
       <c r="C17">
-        <v>14.88989549659506</v>
+        <v>15.60434170860845</v>
       </c>
       <c r="D17">
-        <v>6.574826779979468</v>
+        <v>7.56168221144419</v>
       </c>
       <c r="E17">
-        <v>8.905190985724989</v>
+        <v>9.442087567238861</v>
       </c>
       <c r="F17">
-        <v>25.52727355380154</v>
+        <v>21.34944194529504</v>
       </c>
       <c r="G17">
-        <v>2.061090287324204</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>23.49534382782787</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.522246677010014</v>
       </c>
       <c r="J17">
-        <v>5.61605125817116</v>
+        <v>8.447785321629627</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.72268153912724</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.622779875155234</v>
       </c>
       <c r="M17">
-        <v>16.59967404249857</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.34804019640275</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.6970965516936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.10472508158217</v>
+      </c>
+      <c r="P17">
+        <v>12.06731725572229</v>
+      </c>
+      <c r="Q17">
+        <v>14.21683734183052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.64292605800857</v>
+        <v>20.59537948866883</v>
       </c>
       <c r="C18">
-        <v>14.71313350193586</v>
+        <v>15.41439234434393</v>
       </c>
       <c r="D18">
-        <v>6.531343396666185</v>
+        <v>7.506551752548214</v>
       </c>
       <c r="E18">
-        <v>8.868353889255093</v>
+        <v>9.400218251013724</v>
       </c>
       <c r="F18">
-        <v>25.35554567226597</v>
+        <v>21.24095978705379</v>
       </c>
       <c r="G18">
-        <v>2.062521305825066</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>23.33932597514007</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.484422851664323</v>
       </c>
       <c r="J18">
-        <v>5.620496620055673</v>
+        <v>8.445039430865929</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.75813137154568</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.627618649698817</v>
       </c>
       <c r="M18">
-        <v>16.39363662578709</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.39236546275963</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.60691798618289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.9115935856902</v>
+      </c>
+      <c r="P18">
+        <v>12.07706320856786</v>
+      </c>
+      <c r="Q18">
+        <v>14.17847092484577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.54454518926638</v>
+        <v>20.5041760240014</v>
       </c>
       <c r="C19">
-        <v>14.65283291574623</v>
+        <v>15.36614434677967</v>
       </c>
       <c r="D19">
-        <v>6.516600946579211</v>
+        <v>7.490197395428281</v>
       </c>
       <c r="E19">
-        <v>8.855944419720959</v>
+        <v>9.386865050171945</v>
       </c>
       <c r="F19">
-        <v>25.29763504858281</v>
+        <v>21.19332884390358</v>
       </c>
       <c r="G19">
-        <v>2.063007296939059</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>23.26640024793203</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.473659015966792</v>
       </c>
       <c r="J19">
-        <v>5.622051641849635</v>
+        <v>8.440651584175091</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.76164092183023</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.629021538348775</v>
       </c>
       <c r="M19">
-        <v>16.32335328395503</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.40742640839434</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.57665103976766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.84643360525202</v>
+      </c>
+      <c r="P19">
+        <v>12.08293526301623</v>
+      </c>
+      <c r="Q19">
+        <v>14.15680814026587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.98428586427087</v>
+        <v>20.88558023506928</v>
       </c>
       <c r="C20">
-        <v>14.9223956759759</v>
+        <v>15.63371131761785</v>
       </c>
       <c r="D20">
-        <v>6.582864932927205</v>
+        <v>7.571083568888954</v>
       </c>
       <c r="E20">
-        <v>8.912038516861443</v>
+        <v>9.449610927418249</v>
       </c>
       <c r="F20">
-        <v>25.55916677012247</v>
+        <v>21.37333729039527</v>
       </c>
       <c r="G20">
-        <v>2.060826130655472</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>23.53111866769667</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.52849686036462</v>
       </c>
       <c r="J20">
-        <v>5.615252377723333</v>
+        <v>8.449543948665305</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.7191296244761</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.622003800249064</v>
       </c>
       <c r="M20">
-        <v>16.63755911766429</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.3398618333145</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.71391300956179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.13997420169813</v>
+      </c>
+      <c r="P20">
+        <v>12.06468229326784</v>
+      </c>
+      <c r="Q20">
+        <v>14.22701964561127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.4098908334789</v>
+        <v>22.12644127507665</v>
       </c>
       <c r="C21">
-        <v>15.79677953268971</v>
+        <v>16.48662697234336</v>
       </c>
       <c r="D21">
-        <v>6.803969880495088</v>
+        <v>7.838749253640776</v>
       </c>
       <c r="E21">
-        <v>9.104835266889305</v>
+        <v>9.664151194603768</v>
       </c>
       <c r="F21">
-        <v>26.45373292577401</v>
+        <v>21.99919072992423</v>
       </c>
       <c r="G21">
-        <v>2.053595914532072</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>24.44758327958423</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.707869382971107</v>
       </c>
       <c r="J21">
-        <v>5.595974134144581</v>
+        <v>8.489573186399323</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.59574689591665</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.60214978170935</v>
       </c>
       <c r="M21">
-        <v>17.65714933359413</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.11655023455295</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.19365061568005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.08992643838902</v>
+      </c>
+      <c r="P21">
+        <v>12.00477846891698</v>
+      </c>
+      <c r="Q21">
+        <v>14.48362053371658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.30339785331028</v>
+        <v>22.91401435375271</v>
       </c>
       <c r="C22">
-        <v>16.3450782140387</v>
+        <v>16.99637725764067</v>
       </c>
       <c r="D22">
-        <v>6.947156539552894</v>
+        <v>8.008389297161461</v>
       </c>
       <c r="E22">
-        <v>9.234008385281408</v>
+        <v>9.806337430961793</v>
       </c>
       <c r="F22">
-        <v>27.04978239236013</v>
+        <v>22.43307326829192</v>
       </c>
       <c r="G22">
-        <v>2.048938522793888</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>25.08298855011589</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.820401369292693</v>
       </c>
       <c r="J22">
-        <v>5.586148596639169</v>
+        <v>8.526786264111029</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11.53854584412306</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.592314233463148</v>
       </c>
       <c r="M22">
-        <v>18.2969196173451</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.9733601579248</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.52107480164317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.68329352930174</v>
+      </c>
+      <c r="P22">
+        <v>11.96412576318084</v>
+      </c>
+      <c r="Q22">
+        <v>14.6747549423128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.82998314281453</v>
+        <v>22.5105174935825</v>
       </c>
       <c r="C23">
-        <v>16.05454813864049</v>
+        <v>16.6992915067733</v>
       </c>
       <c r="D23">
-        <v>6.870866281269699</v>
+        <v>7.914107943711597</v>
       </c>
       <c r="E23">
-        <v>9.16477974351573</v>
+        <v>9.728878211752955</v>
       </c>
       <c r="F23">
-        <v>26.73064121257272</v>
+        <v>22.21952444719895</v>
       </c>
       <c r="G23">
-        <v>2.051418388477976</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>24.7771973968909</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.757743923574233</v>
       </c>
       <c r="J23">
-        <v>5.591131199606982</v>
+        <v>8.512615574641956</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.58355899552292</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.597808101048797</v>
       </c>
       <c r="M23">
-        <v>17.95787447118891</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.04953067312284</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.34504803568264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.36780163756513</v>
+      </c>
+      <c r="P23">
+        <v>11.98094457179109</v>
+      </c>
+      <c r="Q23">
+        <v>14.58704323248226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.96033363286451</v>
+        <v>20.88662723214608</v>
       </c>
       <c r="C24">
-        <v>14.90771077383467</v>
+        <v>15.5757457795746</v>
       </c>
       <c r="D24">
-        <v>6.579231320910377</v>
+        <v>7.56048880170406</v>
       </c>
       <c r="E24">
-        <v>8.908941664563439</v>
+        <v>9.4441454166451</v>
       </c>
       <c r="F24">
-        <v>25.54474390013348</v>
+        <v>21.39261895353748</v>
       </c>
       <c r="G24">
-        <v>2.060945527624598</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>23.56987549625077</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.520659845030962</v>
       </c>
       <c r="J24">
-        <v>5.615612630581134</v>
+        <v>8.458457191474629</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.74444503388193</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.623129734445081</v>
       </c>
       <c r="M24">
-        <v>16.62044101152658</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.34355824546329</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.70630558848096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.12203589538629</v>
+      </c>
+      <c r="P24">
+        <v>12.05894668954992</v>
+      </c>
+      <c r="Q24">
+        <v>14.24653858909928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.77671520125092</v>
+        <v>18.97497079791898</v>
       </c>
       <c r="C25">
-        <v>13.57015863019728</v>
+        <v>14.27553057678598</v>
       </c>
       <c r="D25">
-        <v>6.260190409920307</v>
+        <v>7.174959438958063</v>
       </c>
       <c r="E25">
-        <v>8.646958171621641</v>
+        <v>9.151941910394195</v>
       </c>
       <c r="F25">
-        <v>24.31734384976616</v>
+        <v>20.52918259251325</v>
       </c>
       <c r="G25">
-        <v>2.071546926340055</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>22.28316890067126</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.256599813012275</v>
       </c>
       <c r="J25">
-        <v>5.65319403081666</v>
+        <v>8.419363809476311</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.94817815937774</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.661139116904718</v>
       </c>
       <c r="M25">
-        <v>15.15112174472812</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.67255943286912</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.07652852331608</v>
+        <v>14.66446850305369</v>
+      </c>
+      <c r="P25">
+        <v>12.15652347093159</v>
+      </c>
+      <c r="Q25">
+        <v>13.91341890780154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.46843932254433</v>
+        <v>17.29590771632091</v>
       </c>
       <c r="C2">
-        <v>13.16353645730523</v>
+        <v>13.41346968677052</v>
       </c>
       <c r="D2">
-        <v>6.878993168071378</v>
+        <v>6.921763339283128</v>
       </c>
       <c r="E2">
-        <v>8.947127725895415</v>
+        <v>8.954317095525818</v>
       </c>
       <c r="F2">
-        <v>19.97073751794206</v>
+        <v>19.76059872071685</v>
       </c>
       <c r="G2">
-        <v>21.44793355936253</v>
+        <v>20.38908412000846</v>
       </c>
       <c r="I2">
-        <v>3.048525395733352</v>
+        <v>3.058787086920741</v>
       </c>
       <c r="J2">
-        <v>8.421254131584428</v>
+        <v>8.92678699329306</v>
       </c>
       <c r="K2">
-        <v>12.15755712399433</v>
+        <v>11.94374281034187</v>
       </c>
       <c r="L2">
-        <v>5.698896887947516</v>
+        <v>10.90761386085607</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.7763019311465</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.69017020661073</v>
       </c>
       <c r="O2">
-        <v>13.65944013409561</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.22961101938443</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.73566980292709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.69148357355848</v>
+      </c>
+      <c r="R2">
+        <v>12.25913844931938</v>
+      </c>
+      <c r="S2">
+        <v>13.57814592408458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.33845993680359</v>
+        <v>16.21051231294977</v>
       </c>
       <c r="C3">
-        <v>12.40559136779795</v>
+        <v>12.56859741598935</v>
       </c>
       <c r="D3">
-        <v>6.684654131607337</v>
+        <v>6.720723407971323</v>
       </c>
       <c r="E3">
-        <v>8.819124540706213</v>
+        <v>8.825362453343766</v>
       </c>
       <c r="F3">
-        <v>19.58331832046021</v>
+        <v>19.40622355959654</v>
       </c>
       <c r="G3">
-        <v>20.84604145571757</v>
+        <v>19.8416140580389</v>
       </c>
       <c r="I3">
-        <v>2.905094950579227</v>
+        <v>2.930893810576174</v>
       </c>
       <c r="J3">
-        <v>8.422882764074958</v>
+        <v>8.906412999856824</v>
       </c>
       <c r="K3">
-        <v>12.29170062523777</v>
+        <v>12.08807203932224</v>
       </c>
       <c r="L3">
-        <v>5.728826985063214</v>
+        <v>11.08493877025867</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.827722066493254</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.72097314177173</v>
       </c>
       <c r="O3">
-        <v>12.95008502717693</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.29142343464215</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.6107027263058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.97749427890809</v>
+      </c>
+      <c r="R3">
+        <v>12.29876871342682</v>
+      </c>
+      <c r="S3">
+        <v>13.47551032336165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.60053753310433</v>
+        <v>15.50164677746924</v>
       </c>
       <c r="C4">
-        <v>11.91886512408045</v>
+        <v>12.02517991104147</v>
       </c>
       <c r="D4">
-        <v>6.566136035541646</v>
+        <v>6.598262598930258</v>
       </c>
       <c r="E4">
-        <v>8.745095199846165</v>
+        <v>8.750902569777216</v>
       </c>
       <c r="F4">
-        <v>19.35432127880835</v>
+        <v>19.19614536855008</v>
       </c>
       <c r="G4">
-        <v>20.48359588383213</v>
+        <v>19.51417075140083</v>
       </c>
       <c r="I4">
-        <v>2.814371930212934</v>
+        <v>2.85011778773584</v>
       </c>
       <c r="J4">
-        <v>8.427886327123407</v>
+        <v>8.895591411913474</v>
       </c>
       <c r="K4">
-        <v>12.37958714805645</v>
+        <v>12.18073604531028</v>
       </c>
       <c r="L4">
-        <v>5.749570533610195</v>
+        <v>11.1975339980844</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.882912674989726</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.74222993743738</v>
       </c>
       <c r="O4">
-        <v>12.49709148946916</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.33260262365647</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.54170000204957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.52120998178518</v>
+      </c>
+      <c r="R4">
+        <v>12.32660431063858</v>
+      </c>
+      <c r="S4">
+        <v>13.41884323695642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2839110634906</v>
+        <v>15.19728107084599</v>
       </c>
       <c r="C5">
-        <v>11.72445950354486</v>
+        <v>11.80712720474299</v>
       </c>
       <c r="D5">
-        <v>6.51929317272658</v>
+        <v>6.54987868566812</v>
       </c>
       <c r="E5">
-        <v>8.716446123945325</v>
+        <v>8.722123897805055</v>
       </c>
       <c r="F5">
-        <v>19.25793379214452</v>
+        <v>19.10707656974943</v>
       </c>
       <c r="G5">
-        <v>20.32765119617267</v>
+        <v>19.37256780718831</v>
       </c>
       <c r="I5">
-        <v>2.777241843052168</v>
+        <v>2.817401108381845</v>
       </c>
       <c r="J5">
-        <v>8.429313044929945</v>
+        <v>8.8900129329131</v>
       </c>
       <c r="K5">
-        <v>12.41300867959029</v>
+        <v>12.2158177420613</v>
       </c>
       <c r="L5">
-        <v>5.758477266326023</v>
+        <v>11.24080408015923</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.909340781311717</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.751339663397164</v>
       </c>
       <c r="O5">
-        <v>12.30887338038998</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.3510616878231</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.51137663654869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.33154078875576</v>
+      </c>
+      <c r="R5">
+        <v>12.33974104093497</v>
+      </c>
+      <c r="S5">
+        <v>13.39318994746156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22479161097247</v>
+        <v>15.14020727023924</v>
       </c>
       <c r="C6">
-        <v>11.70317291924838</v>
+        <v>11.78221076985882</v>
       </c>
       <c r="D6">
-        <v>6.512978900722937</v>
+        <v>6.543329707064315</v>
       </c>
       <c r="E6">
-        <v>8.712196686780189</v>
+        <v>8.717862392758418</v>
       </c>
       <c r="F6">
-        <v>19.23548933596607</v>
+        <v>19.08579354898088</v>
       </c>
       <c r="G6">
-        <v>20.28937291857538</v>
+        <v>19.33636517187699</v>
       </c>
       <c r="I6">
-        <v>2.771866838803988</v>
+        <v>2.813116439538015</v>
       </c>
       <c r="J6">
-        <v>8.427660142046095</v>
+        <v>8.887171191025525</v>
       </c>
       <c r="K6">
-        <v>12.41407234005928</v>
+        <v>12.2172209554684</v>
       </c>
       <c r="L6">
-        <v>5.759834413265896</v>
+        <v>11.24371261998165</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.911801746765541</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.752729366404329</v>
       </c>
       <c r="O6">
-        <v>12.27806974645546</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.3552610908673</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.50141552721015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.30049142890948</v>
+      </c>
+      <c r="R6">
+        <v>12.34311823858004</v>
+      </c>
+      <c r="S6">
+        <v>13.38397518342178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.58065262307045</v>
+        <v>15.47695773534741</v>
       </c>
       <c r="C7">
-        <v>11.94653453258599</v>
+        <v>12.04482199595199</v>
       </c>
       <c r="D7">
-        <v>6.569411322939509</v>
+        <v>6.604722176791331</v>
       </c>
       <c r="E7">
-        <v>8.745893318457616</v>
+        <v>8.753429893231077</v>
       </c>
       <c r="F7">
-        <v>19.3351488185613</v>
+        <v>19.16528556166139</v>
       </c>
       <c r="G7">
-        <v>20.44762248920716</v>
+        <v>19.57248676433191</v>
       </c>
       <c r="I7">
-        <v>2.815801080557712</v>
+        <v>2.852016861444576</v>
       </c>
       <c r="J7">
-        <v>8.422585281210964</v>
+        <v>8.85191285907546</v>
       </c>
       <c r="K7">
-        <v>12.36753753192237</v>
+        <v>12.16498074264504</v>
       </c>
       <c r="L7">
-        <v>5.749261958652998</v>
+        <v>11.18276834108212</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.874418455274093</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.741959905745341</v>
       </c>
       <c r="O7">
-        <v>12.49642506955439</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.33588095599075</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.52755660346246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.51795941654594</v>
+      </c>
+      <c r="R7">
+        <v>12.33123536733514</v>
+      </c>
+      <c r="S7">
+        <v>13.39564821257203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.06881657363405</v>
+        <v>16.89614932292994</v>
       </c>
       <c r="C8">
-        <v>12.94405145960223</v>
+        <v>13.13913258989168</v>
       </c>
       <c r="D8">
-        <v>6.816848329484728</v>
+        <v>6.86750167484558</v>
       </c>
       <c r="E8">
-        <v>8.903602352739664</v>
+        <v>8.916070326272155</v>
       </c>
       <c r="F8">
-        <v>19.81227965260375</v>
+        <v>19.57564116978095</v>
       </c>
       <c r="G8">
-        <v>21.19572276056725</v>
+        <v>20.46040556558152</v>
       </c>
       <c r="I8">
-        <v>3.001678721969763</v>
+        <v>3.016812928962899</v>
       </c>
       <c r="J8">
-        <v>8.413959772407889</v>
+        <v>8.787179167333949</v>
       </c>
       <c r="K8">
-        <v>12.18600440506916</v>
+        <v>11.96332096496321</v>
       </c>
       <c r="L8">
-        <v>5.708157662689913</v>
+        <v>10.94284644159906</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.769061377427549</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.699863258088786</v>
       </c>
       <c r="O8">
-        <v>13.42083937872825</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.25453848339278</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.67302021412161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.44331261447483</v>
+      </c>
+      <c r="R8">
+        <v>12.28109389951542</v>
+      </c>
+      <c r="S8">
+        <v>13.49357340029219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.66337444171458</v>
+        <v>19.38650665248295</v>
       </c>
       <c r="C9">
-        <v>14.67991824621883</v>
+        <v>15.06873831533341</v>
       </c>
       <c r="D9">
-        <v>7.298866255818977</v>
+        <v>7.36882627094104</v>
       </c>
       <c r="E9">
-        <v>9.246272299600134</v>
+        <v>9.263179229382645</v>
       </c>
       <c r="F9">
-        <v>20.84575952150716</v>
+        <v>20.51160503610554</v>
       </c>
       <c r="G9">
-        <v>22.76893597420551</v>
+        <v>21.96919778961693</v>
       </c>
       <c r="I9">
-        <v>3.343338778874673</v>
+        <v>3.32064595415871</v>
       </c>
       <c r="J9">
-        <v>8.439472680903119</v>
+        <v>8.820235101895831</v>
       </c>
       <c r="K9">
-        <v>11.89855779794565</v>
+        <v>11.63748855478533</v>
       </c>
       <c r="L9">
-        <v>5.647715680553689</v>
+        <v>10.53349452565931</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.77803536240921</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.637148515233028</v>
       </c>
       <c r="O9">
-        <v>15.16869423212876</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.11551338742616</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.04477633650717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.1679864552439</v>
+      </c>
+      <c r="R9">
+        <v>12.20053803852718</v>
+      </c>
+      <c r="S9">
+        <v>13.79481146526991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.35294152201837</v>
+        <v>20.98503045337107</v>
       </c>
       <c r="C10">
-        <v>15.86169742034597</v>
+        <v>16.33820913453042</v>
       </c>
       <c r="D10">
-        <v>7.653174538341437</v>
+        <v>7.75360747724337</v>
       </c>
       <c r="E10">
-        <v>9.519083868213727</v>
+        <v>9.549139127558224</v>
       </c>
       <c r="F10">
-        <v>21.63259136567675</v>
+        <v>21.15999061259648</v>
       </c>
       <c r="G10">
-        <v>23.92868290615881</v>
+        <v>23.5720678246994</v>
       </c>
       <c r="I10">
-        <v>3.583683176385734</v>
+        <v>3.533287302206586</v>
       </c>
       <c r="J10">
-        <v>8.477322238725629</v>
+        <v>8.639731046481813</v>
       </c>
       <c r="K10">
-        <v>11.71237839156994</v>
+        <v>11.3911472748243</v>
       </c>
       <c r="L10">
-        <v>5.61584270416137</v>
+        <v>10.23134576708738</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.876237709995118</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.603708954936673</v>
       </c>
       <c r="O10">
-        <v>16.46790406151213</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.03254049825294</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.35044369222999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.45356972415376</v>
+      </c>
+      <c r="R10">
+        <v>12.17110222292409</v>
+      </c>
+      <c r="S10">
+        <v>13.99212047745652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.05800102405744</v>
+        <v>21.61329730713786</v>
       </c>
       <c r="C11">
-        <v>16.41298860672543</v>
+        <v>16.86116820336141</v>
       </c>
       <c r="D11">
-        <v>7.818663551263613</v>
+        <v>7.960890812454349</v>
       </c>
       <c r="E11">
-        <v>9.649129041490985</v>
+        <v>9.701674092305966</v>
       </c>
       <c r="F11">
-        <v>21.97171051945877</v>
+        <v>21.32705709711569</v>
       </c>
       <c r="G11">
-        <v>24.41236145660372</v>
+        <v>25.09046258483519</v>
       </c>
       <c r="I11">
-        <v>3.694088315374521</v>
+        <v>3.629467350453388</v>
       </c>
       <c r="J11">
-        <v>8.491129835091535</v>
+        <v>8.206405673074656</v>
       </c>
       <c r="K11">
-        <v>11.61423766670071</v>
+        <v>11.22325087608984</v>
       </c>
       <c r="L11">
-        <v>5.603639230561567</v>
+        <v>10.06201759283228</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.884846797854842</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.59118642303029</v>
       </c>
       <c r="O11">
-        <v>17.02903438950247</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.00519607944588</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.47739642647837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.9872022594541</v>
+      </c>
+      <c r="R11">
+        <v>12.18558239557013</v>
+      </c>
+      <c r="S11">
+        <v>13.97986213856912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.32877474446057</v>
+        <v>21.85108746867217</v>
       </c>
       <c r="C12">
-        <v>16.59805511450357</v>
+        <v>17.02723512603867</v>
       </c>
       <c r="D12">
-        <v>7.878220322066857</v>
+        <v>8.039602030774983</v>
       </c>
       <c r="E12">
-        <v>9.697997034298879</v>
+        <v>9.761110847160296</v>
       </c>
       <c r="F12">
-        <v>22.11486502953849</v>
+        <v>21.39164730517166</v>
       </c>
       <c r="G12">
-        <v>24.62088288864983</v>
+        <v>25.79061351737015</v>
       </c>
       <c r="I12">
-        <v>3.733807368113578</v>
+        <v>3.66267377902427</v>
       </c>
       <c r="J12">
-        <v>8.501635225572761</v>
+        <v>8.014691211417043</v>
       </c>
       <c r="K12">
-        <v>11.58936881629843</v>
+        <v>11.16536559979077</v>
       </c>
       <c r="L12">
-        <v>5.599825411283398</v>
+        <v>10.00252658295417</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.89553481327044</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.587305840011418</v>
       </c>
       <c r="O12">
-        <v>17.2361072836616</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.99217060824034</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.53789041411082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.18144722813013</v>
+      </c>
+      <c r="R12">
+        <v>12.19049678360072</v>
+      </c>
+      <c r="S12">
+        <v>13.97614712184792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.27274070841729</v>
+        <v>21.80233659189782</v>
       </c>
       <c r="C13">
-        <v>16.55436214755181</v>
+        <v>16.98789897086363</v>
       </c>
       <c r="D13">
-        <v>7.864829065594099</v>
+        <v>8.021926932712946</v>
       </c>
       <c r="E13">
-        <v>9.687257979894859</v>
+        <v>9.747999014581765</v>
       </c>
       <c r="F13">
-        <v>22.08673885366691</v>
+        <v>21.38103229340576</v>
       </c>
       <c r="G13">
-        <v>24.58092871189541</v>
+        <v>25.64044707257337</v>
       </c>
       <c r="I13">
-        <v>3.724857231544146</v>
+        <v>3.654954631959682</v>
       </c>
       <c r="J13">
-        <v>8.500244817367912</v>
+        <v>8.057837244032982</v>
       </c>
       <c r="K13">
-        <v>11.59691764794598</v>
+        <v>11.1801072074486</v>
       </c>
       <c r="L13">
-        <v>5.600699279986436</v>
+        <v>10.01664212101453</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.895393547449541</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.588191672041482</v>
       </c>
       <c r="O13">
-        <v>17.19153312602178</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.99427468367571</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.52702933671842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.13973759792016</v>
+      </c>
+      <c r="R13">
+        <v>12.1885654159912</v>
+      </c>
+      <c r="S13">
+        <v>13.97959420934259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.08126124271702</v>
+        <v>21.63392492219151</v>
       </c>
       <c r="C14">
-        <v>16.42657584952922</v>
+        <v>16.87331298745864</v>
       </c>
       <c r="D14">
-        <v>7.823322289848001</v>
+        <v>7.967054264550103</v>
       </c>
       <c r="E14">
-        <v>9.653057352722151</v>
+        <v>9.706428610582673</v>
       </c>
       <c r="F14">
-        <v>21.98464113749283</v>
+        <v>21.33379056100248</v>
       </c>
       <c r="G14">
-        <v>24.43163349419096</v>
+        <v>25.14822802476307</v>
       </c>
       <c r="I14">
-        <v>3.697181828191697</v>
+        <v>3.631951413115889</v>
       </c>
       <c r="J14">
-        <v>8.492364224236356</v>
+        <v>8.191489971215402</v>
       </c>
       <c r="K14">
-        <v>11.61312096760472</v>
+        <v>11.21946253503668</v>
       </c>
       <c r="L14">
-        <v>5.603347295809154</v>
+        <v>10.05768817657986</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.886642515439348</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.590887920845419</v>
       </c>
       <c r="O14">
-        <v>17.04608454486812</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.00382715368202</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.48329547268022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>17.00324312935579</v>
+      </c>
+      <c r="R14">
+        <v>12.18561506173194</v>
+      </c>
+      <c r="S14">
+        <v>13.98069573164272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.95914498024027</v>
+        <v>21.52541595872261</v>
       </c>
       <c r="C15">
-        <v>16.3558311296469</v>
+        <v>16.80980819788648</v>
       </c>
       <c r="D15">
-        <v>7.799014070321755</v>
+        <v>7.93501480790584</v>
       </c>
       <c r="E15">
-        <v>9.632558114315867</v>
+        <v>9.681693422382299</v>
       </c>
       <c r="F15">
-        <v>21.91676626370122</v>
+        <v>21.29777840697664</v>
       </c>
       <c r="G15">
-        <v>24.33032316008693</v>
+        <v>24.84963468273023</v>
       </c>
       <c r="I15">
-        <v>3.681083478186051</v>
+        <v>3.61905777629931</v>
       </c>
       <c r="J15">
-        <v>8.4858478368857</v>
+        <v>8.268183282851625</v>
       </c>
       <c r="K15">
-        <v>11.61878791779653</v>
+        <v>11.23886849096815</v>
       </c>
       <c r="L15">
-        <v>5.604884679921305</v>
+        <v>10.0801038241183</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.876954354442322</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.592461829873365</v>
       </c>
       <c r="O15">
-        <v>16.95676272431797</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.01107413797923</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.45226644851655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.91910314243057</v>
+      </c>
+      <c r="R15">
+        <v>12.18563303817023</v>
+      </c>
+      <c r="S15">
+        <v>13.97569306193062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.27155189733678</v>
+        <v>20.90799325833457</v>
       </c>
       <c r="C16">
-        <v>15.89371004285359</v>
+        <v>16.3724914821631</v>
       </c>
       <c r="D16">
-        <v>7.652110668614553</v>
+        <v>7.75039746264285</v>
       </c>
       <c r="E16">
-        <v>9.5138599441499</v>
+        <v>9.542773441600062</v>
       </c>
       <c r="F16">
-        <v>21.56407575772883</v>
+        <v>21.10099064488408</v>
       </c>
       <c r="G16">
-        <v>23.81250171447013</v>
+        <v>23.40039299562813</v>
       </c>
       <c r="I16">
-        <v>3.582899023008804</v>
+        <v>3.536303729554178</v>
       </c>
       <c r="J16">
-        <v>8.461407183304663</v>
+        <v>8.649575425878396</v>
       </c>
       <c r="K16">
-        <v>11.68182727540326</v>
+        <v>11.36683409134714</v>
       </c>
       <c r="L16">
-        <v>5.615492997815771</v>
+        <v>10.22012044224033</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.842366190922268</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.603384966140406</v>
       </c>
       <c r="O16">
-        <v>16.43367164838684</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.04532680947659</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.30491471052212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.42085685938411</v>
+      </c>
+      <c r="R16">
+        <v>12.18231803470956</v>
+      </c>
+      <c r="S16">
+        <v>13.95456947525956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.83817267909624</v>
+        <v>20.51057120178488</v>
       </c>
       <c r="C17">
-        <v>15.60434170860845</v>
+        <v>16.08419525581324</v>
       </c>
       <c r="D17">
-        <v>7.56168221144419</v>
+        <v>7.642692871382673</v>
       </c>
       <c r="E17">
-        <v>9.442087567238861</v>
+        <v>9.462134233806141</v>
       </c>
       <c r="F17">
-        <v>21.34944194529504</v>
+        <v>20.95879793508284</v>
       </c>
       <c r="G17">
-        <v>23.49534382782787</v>
+        <v>22.68662106490766</v>
       </c>
       <c r="I17">
-        <v>3.522246677010014</v>
+        <v>3.484542973691501</v>
       </c>
       <c r="J17">
-        <v>8.447785321629627</v>
+        <v>8.815914274062594</v>
       </c>
       <c r="K17">
-        <v>11.72268153912724</v>
+        <v>11.43768257174541</v>
       </c>
       <c r="L17">
-        <v>5.622779875155234</v>
+        <v>10.30223179631583</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.81807124857932</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.610951921401859</v>
       </c>
       <c r="O17">
-        <v>16.10472508158217</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.06731725572229</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.21683734183052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.10281662541136</v>
+      </c>
+      <c r="R17">
+        <v>12.18511298009235</v>
+      </c>
+      <c r="S17">
+        <v>13.92445968256089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.59537948866883</v>
+        <v>20.28587231262055</v>
       </c>
       <c r="C18">
-        <v>15.41439234434393</v>
+        <v>15.88911048226861</v>
       </c>
       <c r="D18">
-        <v>7.506551752548214</v>
+        <v>7.579699154826564</v>
       </c>
       <c r="E18">
-        <v>9.400218251013724</v>
+        <v>9.416406922537249</v>
       </c>
       <c r="F18">
-        <v>21.24095978705379</v>
+        <v>20.88365148929736</v>
       </c>
       <c r="G18">
-        <v>23.33932597514007</v>
+        <v>22.36623998759451</v>
       </c>
       <c r="I18">
-        <v>3.484422851664323</v>
+        <v>3.450550420080738</v>
       </c>
       <c r="J18">
-        <v>8.445039430865929</v>
+        <v>8.889160971039416</v>
       </c>
       <c r="K18">
-        <v>11.75813137154568</v>
+        <v>11.48632224153107</v>
       </c>
       <c r="L18">
-        <v>5.627618649698817</v>
+        <v>10.35499418270122</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.813048110794603</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.615982253999681</v>
       </c>
       <c r="O18">
-        <v>15.9115935856902</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.07706320856786</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.17847092484577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.91433149884163</v>
+      </c>
+      <c r="R18">
+        <v>12.1849020671409</v>
+      </c>
+      <c r="S18">
+        <v>13.91242951739907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.5041760240014</v>
+        <v>20.20031602470863</v>
       </c>
       <c r="C19">
-        <v>15.36614434677967</v>
+        <v>15.83860516734457</v>
       </c>
       <c r="D19">
-        <v>7.490197395428281</v>
+        <v>7.561069228785963</v>
       </c>
       <c r="E19">
-        <v>9.386865050171945</v>
+        <v>9.401969870385992</v>
       </c>
       <c r="F19">
-        <v>21.19332884390358</v>
+        <v>20.84591383504169</v>
       </c>
       <c r="G19">
-        <v>23.26640024793203</v>
+        <v>22.24803748754155</v>
       </c>
       <c r="I19">
-        <v>3.473659015966792</v>
+        <v>3.441840744675336</v>
       </c>
       <c r="J19">
-        <v>8.440651584175091</v>
+        <v>8.905969229342595</v>
       </c>
       <c r="K19">
-        <v>11.76164092183023</v>
+        <v>11.49422851272809</v>
       </c>
       <c r="L19">
-        <v>5.629021538348775</v>
+        <v>10.36720732541478</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.803733021870685</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.617454244466718</v>
       </c>
       <c r="O19">
-        <v>15.84643360525202</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.08293526301623</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.15680814026587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.85048225080664</v>
+      </c>
+      <c r="R19">
+        <v>12.18779619989808</v>
+      </c>
+      <c r="S19">
+        <v>13.89860059949552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.88558023506928</v>
+        <v>20.554424954427</v>
       </c>
       <c r="C20">
-        <v>15.63371131761785</v>
+        <v>16.11395486128301</v>
       </c>
       <c r="D20">
-        <v>7.571083568888954</v>
+        <v>7.653710948654872</v>
       </c>
       <c r="E20">
-        <v>9.449610927418249</v>
+        <v>9.470469345864853</v>
       </c>
       <c r="F20">
-        <v>21.37333729039527</v>
+        <v>20.97584566837688</v>
       </c>
       <c r="G20">
-        <v>23.53111866769667</v>
+        <v>22.75808134395272</v>
       </c>
       <c r="I20">
-        <v>3.52849686036462</v>
+        <v>3.489786016680054</v>
       </c>
       <c r="J20">
-        <v>8.449543948665305</v>
+        <v>8.801280882569781</v>
       </c>
       <c r="K20">
-        <v>11.7191296244761</v>
+        <v>11.43124269673318</v>
       </c>
       <c r="L20">
-        <v>5.622003800249064</v>
+        <v>10.29418062188026</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.821517248284197</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.61014297567142</v>
       </c>
       <c r="O20">
-        <v>16.13997420169813</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.06468229326784</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.22701964561127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.13706939617146</v>
+      </c>
+      <c r="R20">
+        <v>12.18436450713681</v>
+      </c>
+      <c r="S20">
+        <v>13.92918309960185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.12644127507665</v>
+        <v>21.65912672233169</v>
       </c>
       <c r="C21">
-        <v>16.48662697234336</v>
+        <v>16.90658443774749</v>
       </c>
       <c r="D21">
-        <v>7.838749253640776</v>
+        <v>7.996389874550709</v>
       </c>
       <c r="E21">
-        <v>9.664151194603768</v>
+        <v>9.725517668712893</v>
       </c>
       <c r="F21">
-        <v>21.99919072992423</v>
+        <v>21.29387832257913</v>
       </c>
       <c r="G21">
-        <v>24.44758327958423</v>
+        <v>25.56116672461975</v>
       </c>
       <c r="I21">
-        <v>3.707869382971107</v>
+        <v>3.64110640308201</v>
       </c>
       <c r="J21">
-        <v>8.489573186399323</v>
+        <v>8.034345874053498</v>
       </c>
       <c r="K21">
-        <v>11.59574689591665</v>
+        <v>11.18178091663612</v>
       </c>
       <c r="L21">
-        <v>5.60214978170935</v>
+        <v>10.02990423894432</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.86338239510592</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.589826467052333</v>
       </c>
       <c r="O21">
-        <v>17.08992643838902</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.00477846891698</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.48362053371658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.03694893745829</v>
+      </c>
+      <c r="R21">
+        <v>12.19633446534294</v>
+      </c>
+      <c r="S21">
+        <v>13.93667713837417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.91401435375271</v>
+        <v>22.35681273157699</v>
       </c>
       <c r="C22">
-        <v>16.99637725764067</v>
+        <v>17.36995661152913</v>
       </c>
       <c r="D22">
-        <v>8.008389297161461</v>
+        <v>8.21806044076294</v>
       </c>
       <c r="E22">
-        <v>9.806337430961793</v>
+        <v>9.896544137464749</v>
       </c>
       <c r="F22">
-        <v>22.43307326829192</v>
+        <v>21.51243966259435</v>
       </c>
       <c r="G22">
-        <v>25.08298855011589</v>
+        <v>27.51344920841776</v>
       </c>
       <c r="I22">
-        <v>3.820401369292693</v>
+        <v>3.734427110921655</v>
       </c>
       <c r="J22">
-        <v>8.526786264111029</v>
+        <v>7.556037846199025</v>
       </c>
       <c r="K22">
-        <v>11.53854584412306</v>
+        <v>11.0305995850172</v>
       </c>
       <c r="L22">
-        <v>5.592314233463148</v>
+        <v>9.869421493317626</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.915089465149689</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.579752719888387</v>
       </c>
       <c r="O22">
-        <v>17.68329352930174</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.96412576318084</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.6747549423128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.59619573020722</v>
+      </c>
+      <c r="R22">
+        <v>12.20643037503731</v>
+      </c>
+      <c r="S22">
+        <v>13.95059581996149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.5105174935825</v>
+        <v>22.01047897013504</v>
       </c>
       <c r="C23">
-        <v>16.6992915067733</v>
+        <v>17.11374100196787</v>
       </c>
       <c r="D23">
-        <v>7.914107943711597</v>
+        <v>8.088771145474476</v>
       </c>
       <c r="E23">
-        <v>9.728878211752955</v>
+        <v>9.799391924782389</v>
       </c>
       <c r="F23">
-        <v>22.21952444719895</v>
+        <v>21.44174806729642</v>
       </c>
       <c r="G23">
-        <v>24.7771973968909</v>
+        <v>26.29242787355895</v>
       </c>
       <c r="I23">
-        <v>3.757743923574233</v>
+        <v>3.681569865505018</v>
       </c>
       <c r="J23">
-        <v>8.512615574641956</v>
+        <v>7.887030373295369</v>
       </c>
       <c r="K23">
-        <v>11.58355899552292</v>
+        <v>11.13566844138275</v>
       </c>
       <c r="L23">
-        <v>5.597808101048797</v>
+        <v>9.968889906987402</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.910640171268331</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.585261511375339</v>
       </c>
       <c r="O23">
-        <v>17.36780163756513</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.98094457179109</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.58704323248226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.30418911563595</v>
+      </c>
+      <c r="R23">
+        <v>12.19125887036994</v>
+      </c>
+      <c r="S23">
+        <v>13.98043655146323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.88662723214608</v>
+        <v>20.55716102441799</v>
       </c>
       <c r="C24">
-        <v>15.5757457795746</v>
+        <v>16.05479514454842</v>
       </c>
       <c r="D24">
-        <v>7.56048880170406</v>
+        <v>7.642300583453395</v>
       </c>
       <c r="E24">
-        <v>9.4441454166451</v>
+        <v>9.464603095774544</v>
       </c>
       <c r="F24">
-        <v>21.39261895353748</v>
+        <v>20.99820260781954</v>
       </c>
       <c r="G24">
-        <v>23.56987549625077</v>
+        <v>22.78155822465747</v>
       </c>
       <c r="I24">
-        <v>3.520659845030962</v>
+        <v>3.480357452701734</v>
       </c>
       <c r="J24">
-        <v>8.458457191474629</v>
+        <v>8.816936930057144</v>
       </c>
       <c r="K24">
-        <v>11.74444503388193</v>
+        <v>11.45644195421607</v>
       </c>
       <c r="L24">
-        <v>5.623129734445081</v>
+        <v>10.3123962052093</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.840783765376676</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.611285308989202</v>
       </c>
       <c r="O24">
-        <v>16.12203589538629</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.05894668954992</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.24653858909928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.11954661279179</v>
+      </c>
+      <c r="R24">
+        <v>12.17726784144585</v>
+      </c>
+      <c r="S24">
+        <v>13.95095888797767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.97497079791898</v>
+        <v>18.73077315586927</v>
       </c>
       <c r="C25">
-        <v>14.27553057678598</v>
+        <v>14.62638977354766</v>
       </c>
       <c r="D25">
-        <v>7.174959438958063</v>
+        <v>7.235568847343472</v>
       </c>
       <c r="E25">
-        <v>9.151941910394195</v>
+        <v>9.165225262715486</v>
       </c>
       <c r="F25">
-        <v>20.52918259251325</v>
+        <v>20.23813781061223</v>
       </c>
       <c r="G25">
-        <v>22.28316890067126</v>
+        <v>21.37323486560547</v>
       </c>
       <c r="I25">
-        <v>3.256599813012275</v>
+        <v>3.24609112210787</v>
       </c>
       <c r="J25">
-        <v>8.419363809476311</v>
+        <v>8.853745984155529</v>
       </c>
       <c r="K25">
-        <v>11.94817815937774</v>
+        <v>11.70579329119655</v>
       </c>
       <c r="L25">
-        <v>5.661139116904718</v>
+        <v>10.629381362905</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.7410136247689</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.651150221350618</v>
       </c>
       <c r="O25">
-        <v>14.66446850305369</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.15652347093159</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.91341890780154</v>
+        <v>14.68592491431084</v>
+      </c>
+      <c r="R25">
+        <v>12.22387577061097</v>
+      </c>
+      <c r="S25">
+        <v>13.69642835315357</v>
       </c>
     </row>
   </sheetData>
